--- a/MMORPG-Demo/MMOServer/src/main/resources/static/roleProperties.xlsx
+++ b/MMORPG-Demo/MMOServer/src/main/resources/static/roleProperties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\MMORPG-Demo\MMOServer\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4260AFB-3E3E-4381-9BCB-E0BADD306BCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F026466B-8227-418C-8C06-F157B41E72F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2748" yWindow="4092" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基础HP</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>命中</t>
-  </si>
-  <si>
-    <t>魔法抗性</t>
-  </si>
-  <si>
-    <t>耐力</t>
   </si>
   <si>
     <t>id</t>
@@ -76,6 +70,10 @@
   </si>
   <si>
     <t>propertyValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法抗性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -419,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -433,16 +431,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,26 +560,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>100</v>
-      </c>
-      <c r="D11" s="1">
         <v>2</v>
       </c>
     </row>
